--- a/Datasets_used_in_this_study.xlsx
+++ b/Datasets_used_in_this_study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="9120" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="16000" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>WAC-Lge1CC H2BK123ub</t>
   </si>
   <si>
-    <t>Supp Figure X</t>
-  </si>
-  <si>
     <t>Lge1-TAP</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
       </rPr>
       <t xml:space="preserve"> H2BK123ub</t>
     </r>
+  </si>
+  <si>
+    <t>Supp Figure 6</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>20506</v>
@@ -770,12 +770,12 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>20491</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>20495</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>20492</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>20496</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>20493</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>20494</v>
